--- a/Descargas/R15_3º Juzgado De Familia De Santiago_Ingresos Causas Por Materia_2020-Julio.xlsx
+++ b/Descargas/R15_3º Juzgado De Familia De Santiago_Ingresos Causas Por Materia_2020-Julio.xlsx
@@ -301,7 +301,7 @@
         </is>
       </c>
       <c r="B10" s="65">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
